--- a/ConvertedEqual/Florida_Converted.xlsx
+++ b/ConvertedEqual/Florida_Converted.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="279">
   <si>
     <t>Policy/Closing</t>
   </si>
@@ -816,6 +816,42 @@
   </si>
   <si>
     <t>9/29/2020</t>
+  </si>
+  <si>
+    <t>9/30/2020</t>
+  </si>
+  <si>
+    <t>10/1/2020</t>
+  </si>
+  <si>
+    <t>10/2/2020</t>
+  </si>
+  <si>
+    <t>10/3/2020</t>
+  </si>
+  <si>
+    <t>10/4/2020</t>
+  </si>
+  <si>
+    <t>10/5/2020</t>
+  </si>
+  <si>
+    <t>10/6/2020</t>
+  </si>
+  <si>
+    <t>10/7/2020</t>
+  </si>
+  <si>
+    <t>10/8/2020</t>
+  </si>
+  <si>
+    <t>10/9/2020</t>
+  </si>
+  <si>
+    <t>10/10/2020</t>
+  </si>
+  <si>
+    <t>10/11/2020</t>
   </si>
 </sst>
 </file>
@@ -1177,7 +1213,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD221"/>
+  <dimension ref="A1:AD233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1605,7 +1641,7 @@
         <v>1</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7">
         <v>1</v>
@@ -1617,7 +1653,7 @@
         <v>0.3333333333</v>
       </c>
       <c r="AD7">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -3186,7 +3222,7 @@
         <v>1</v>
       </c>
       <c r="AD25">
-        <v>0.1282051282</v>
+        <v>0.1388888888833333</v>
       </c>
     </row>
     <row r="26" spans="1:30">
@@ -3278,7 +3314,7 @@
         <v>1</v>
       </c>
       <c r="AD26">
-        <v>0.1282051282</v>
+        <v>0.1388888888833333</v>
       </c>
     </row>
     <row r="27" spans="1:30">
@@ -3370,7 +3406,7 @@
         <v>1</v>
       </c>
       <c r="AD27">
-        <v>0.1282051282</v>
+        <v>0.1388888888833333</v>
       </c>
     </row>
     <row r="28" spans="1:30">
@@ -3462,7 +3498,7 @@
         <v>1</v>
       </c>
       <c r="AD28">
-        <v>0.2307692307615385</v>
+        <v>0.2499999999916667</v>
       </c>
     </row>
     <row r="29" spans="1:30">
@@ -3554,7 +3590,7 @@
         <v>1</v>
       </c>
       <c r="AD29">
-        <v>0.2307692307615385</v>
+        <v>0.2499999999916667</v>
       </c>
     </row>
     <row r="30" spans="1:30">
@@ -3646,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="AD30">
-        <v>0.2307692307615385</v>
+        <v>0.2499999999916667</v>
       </c>
     </row>
     <row r="31" spans="1:30">
@@ -3738,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="AD31">
-        <v>0.2307692307615385</v>
+        <v>0.2499999999916667</v>
       </c>
     </row>
     <row r="32" spans="1:30">
@@ -3830,7 +3866,7 @@
         <v>1</v>
       </c>
       <c r="AD32">
-        <v>0.2307692307615385</v>
+        <v>0.2499999999916667</v>
       </c>
     </row>
     <row r="33" spans="1:30">
@@ -3922,7 +3958,7 @@
         <v>1</v>
       </c>
       <c r="AD33">
-        <v>0.2307692307615385</v>
+        <v>0.2499999999916667</v>
       </c>
     </row>
     <row r="34" spans="1:30">
@@ -4014,7 +4050,7 @@
         <v>1</v>
       </c>
       <c r="AD34">
-        <v>0.2307692307615385</v>
+        <v>0.2499999999916667</v>
       </c>
     </row>
     <row r="35" spans="1:30">
@@ -4106,7 +4142,7 @@
         <v>1</v>
       </c>
       <c r="AD35">
-        <v>0.2307692307615385</v>
+        <v>0.2499999999916667</v>
       </c>
     </row>
     <row r="36" spans="1:30">
@@ -4198,7 +4234,7 @@
         <v>1</v>
       </c>
       <c r="AD36">
-        <v>0.2307692307615385</v>
+        <v>0.2499999999916667</v>
       </c>
     </row>
     <row r="37" spans="1:30">
@@ -4290,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="AD37">
-        <v>0.2307692307615385</v>
+        <v>0.2499999999916667</v>
       </c>
     </row>
     <row r="38" spans="1:30">
@@ -4382,7 +4418,7 @@
         <v>1</v>
       </c>
       <c r="AD38">
-        <v>0.2307692307615385</v>
+        <v>0.2499999999916667</v>
       </c>
     </row>
     <row r="39" spans="1:30">
@@ -4474,7 +4510,7 @@
         <v>1</v>
       </c>
       <c r="AD39">
-        <v>0.2307692307615385</v>
+        <v>0.2499999999916667</v>
       </c>
     </row>
     <row r="40" spans="1:30">
@@ -4566,7 +4602,7 @@
         <v>1</v>
       </c>
       <c r="AD40">
-        <v>0.2307692307615385</v>
+        <v>0.2499999999916667</v>
       </c>
     </row>
     <row r="41" spans="1:30">
@@ -4658,7 +4694,7 @@
         <v>1</v>
       </c>
       <c r="AD41">
-        <v>0.2307692307615385</v>
+        <v>0.2499999999916667</v>
       </c>
     </row>
     <row r="42" spans="1:30">
@@ -4750,7 +4786,7 @@
         <v>1</v>
       </c>
       <c r="AD42">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="43" spans="1:30">
@@ -4842,7 +4878,7 @@
         <v>1</v>
       </c>
       <c r="AD43">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="44" spans="1:30">
@@ -4934,7 +4970,7 @@
         <v>1</v>
       </c>
       <c r="AD44">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="45" spans="1:30">
@@ -5026,7 +5062,7 @@
         <v>1</v>
       </c>
       <c r="AD45">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="46" spans="1:30">
@@ -5118,7 +5154,7 @@
         <v>1</v>
       </c>
       <c r="AD46">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="47" spans="1:30">
@@ -5210,7 +5246,7 @@
         <v>1</v>
       </c>
       <c r="AD47">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="48" spans="1:30">
@@ -5302,7 +5338,7 @@
         <v>1</v>
       </c>
       <c r="AD48">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="49" spans="1:30">
@@ -5394,7 +5430,7 @@
         <v>1</v>
       </c>
       <c r="AD49">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="50" spans="1:30">
@@ -5486,7 +5522,7 @@
         <v>1</v>
       </c>
       <c r="AD50">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="51" spans="1:30">
@@ -5578,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="AD51">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="52" spans="1:30">
@@ -5670,7 +5706,7 @@
         <v>1</v>
       </c>
       <c r="AD52">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="53" spans="1:30">
@@ -5762,7 +5798,7 @@
         <v>1</v>
       </c>
       <c r="AD53">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="54" spans="1:30">
@@ -5854,7 +5890,7 @@
         <v>1</v>
       </c>
       <c r="AD54">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="55" spans="1:30">
@@ -5946,7 +5982,7 @@
         <v>1</v>
       </c>
       <c r="AD55">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="56" spans="1:30">
@@ -6038,7 +6074,7 @@
         <v>1</v>
       </c>
       <c r="AD56">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="57" spans="1:30">
@@ -6130,7 +6166,7 @@
         <v>1</v>
       </c>
       <c r="AD57">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="58" spans="1:30">
@@ -6222,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="AD58">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="59" spans="1:30">
@@ -6314,7 +6350,7 @@
         <v>1</v>
       </c>
       <c r="AD59">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="60" spans="1:30">
@@ -6406,7 +6442,7 @@
         <v>1</v>
       </c>
       <c r="AD60">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="61" spans="1:30">
@@ -6498,7 +6534,7 @@
         <v>1</v>
       </c>
       <c r="AD61">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="62" spans="1:30">
@@ -6590,7 +6626,7 @@
         <v>1</v>
       </c>
       <c r="AD62">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="63" spans="1:30">
@@ -6682,7 +6718,7 @@
         <v>1</v>
       </c>
       <c r="AD63">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="64" spans="1:30">
@@ -6774,7 +6810,7 @@
         <v>1</v>
       </c>
       <c r="AD64">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="65" spans="1:30">
@@ -6866,7 +6902,7 @@
         <v>1</v>
       </c>
       <c r="AD65">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="66" spans="1:30">
@@ -6958,7 +6994,7 @@
         <v>1</v>
       </c>
       <c r="AD66">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="67" spans="1:30">
@@ -7050,7 +7086,7 @@
         <v>1</v>
       </c>
       <c r="AD67">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="68" spans="1:30">
@@ -7142,7 +7178,7 @@
         <v>1</v>
       </c>
       <c r="AD68">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="69" spans="1:30">
@@ -7234,7 +7270,7 @@
         <v>1</v>
       </c>
       <c r="AD69">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="70" spans="1:30">
@@ -7326,7 +7362,7 @@
         <v>1</v>
       </c>
       <c r="AD70">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="71" spans="1:30">
@@ -7418,7 +7454,7 @@
         <v>1</v>
       </c>
       <c r="AD71">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="72" spans="1:30">
@@ -7510,7 +7546,7 @@
         <v>1</v>
       </c>
       <c r="AD72">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="73" spans="1:30">
@@ -7602,7 +7638,7 @@
         <v>1</v>
       </c>
       <c r="AD73">
-        <v>0.846153846146154</v>
+        <v>0.8333333333250001</v>
       </c>
     </row>
     <row r="74" spans="1:30">
@@ -7694,7 +7730,7 @@
         <v>1</v>
       </c>
       <c r="AD74">
-        <v>0.6730769230692309</v>
+        <v>0.645833333325</v>
       </c>
     </row>
     <row r="75" spans="1:30">
@@ -7786,7 +7822,7 @@
         <v>1</v>
       </c>
       <c r="AD75">
-        <v>0.6730769230692309</v>
+        <v>0.645833333325</v>
       </c>
     </row>
     <row r="76" spans="1:30">
@@ -7878,7 +7914,7 @@
         <v>1</v>
       </c>
       <c r="AD76">
-        <v>0.6730769230692309</v>
+        <v>0.645833333325</v>
       </c>
     </row>
     <row r="77" spans="1:30">
@@ -7970,7 +8006,7 @@
         <v>1</v>
       </c>
       <c r="AD77">
-        <v>0.6730769230692309</v>
+        <v>0.645833333325</v>
       </c>
     </row>
     <row r="78" spans="1:30">
@@ -8062,7 +8098,7 @@
         <v>1</v>
       </c>
       <c r="AD78">
-        <v>0.6730769230692309</v>
+        <v>0.645833333325</v>
       </c>
     </row>
     <row r="79" spans="1:30">
@@ -8154,7 +8190,7 @@
         <v>1</v>
       </c>
       <c r="AD79">
-        <v>0.6730769230692309</v>
+        <v>0.645833333325</v>
       </c>
     </row>
     <row r="80" spans="1:30">
@@ -8246,7 +8282,7 @@
         <v>1</v>
       </c>
       <c r="AD80">
-        <v>0.6730769230692309</v>
+        <v>0.645833333325</v>
       </c>
     </row>
     <row r="81" spans="1:30">
@@ -8338,7 +8374,7 @@
         <v>1</v>
       </c>
       <c r="AD81">
-        <v>0.6576923076846154</v>
+        <v>0.6291666666583333</v>
       </c>
     </row>
     <row r="82" spans="1:30">
@@ -8430,7 +8466,7 @@
         <v>1</v>
       </c>
       <c r="AD82">
-        <v>0.6576923076846154</v>
+        <v>0.6291666666583333</v>
       </c>
     </row>
     <row r="83" spans="1:30">
@@ -8522,7 +8558,7 @@
         <v>1</v>
       </c>
       <c r="AD83">
-        <v>0.6576923076846154</v>
+        <v>0.6291666666583333</v>
       </c>
     </row>
     <row r="84" spans="1:30">
@@ -8614,7 +8650,7 @@
         <v>1</v>
       </c>
       <c r="AD84">
-        <v>0.6576923076846154</v>
+        <v>0.6291666666583333</v>
       </c>
     </row>
     <row r="85" spans="1:30">
@@ -8706,7 +8742,7 @@
         <v>1</v>
       </c>
       <c r="AD85">
-        <v>0.6576923076846154</v>
+        <v>0.6291666666583333</v>
       </c>
     </row>
     <row r="86" spans="1:30">
@@ -8798,7 +8834,7 @@
         <v>1</v>
       </c>
       <c r="AD86">
-        <v>0.6576923076846154</v>
+        <v>0.6291666666583333</v>
       </c>
     </row>
     <row r="87" spans="1:30">
@@ -8890,7 +8926,7 @@
         <v>1</v>
       </c>
       <c r="AD87">
-        <v>0.6576923076846154</v>
+        <v>0.6291666666583333</v>
       </c>
     </row>
     <row r="88" spans="1:30">
@@ -8982,7 +9018,7 @@
         <v>1</v>
       </c>
       <c r="AD88">
-        <v>0.4782051282</v>
+        <v>0.4347222222166667</v>
       </c>
     </row>
     <row r="89" spans="1:30">
@@ -9074,7 +9110,7 @@
         <v>1</v>
       </c>
       <c r="AD89">
-        <v>0.4782051282</v>
+        <v>0.4347222222166667</v>
       </c>
     </row>
     <row r="90" spans="1:30">
@@ -9166,7 +9202,7 @@
         <v>1</v>
       </c>
       <c r="AD90">
-        <v>0.4782051282</v>
+        <v>0.4347222222166667</v>
       </c>
     </row>
     <row r="91" spans="1:30">
@@ -9258,7 +9294,7 @@
         <v>1</v>
       </c>
       <c r="AD91">
-        <v>0.4782051282</v>
+        <v>0.4347222222166667</v>
       </c>
     </row>
     <row r="92" spans="1:30">
@@ -9350,7 +9386,7 @@
         <v>1</v>
       </c>
       <c r="AD92">
-        <v>0.4782051282</v>
+        <v>0.4347222222166667</v>
       </c>
     </row>
     <row r="93" spans="1:30">
@@ -9442,7 +9478,7 @@
         <v>1</v>
       </c>
       <c r="AD93">
-        <v>0.4782051282</v>
+        <v>0.4347222222166667</v>
       </c>
     </row>
     <row r="94" spans="1:30">
@@ -9534,7 +9570,7 @@
         <v>1</v>
       </c>
       <c r="AD94">
-        <v>0.4782051282</v>
+        <v>0.4347222222166667</v>
       </c>
     </row>
     <row r="95" spans="1:30">
@@ -9626,7 +9662,7 @@
         <v>1</v>
       </c>
       <c r="AD95">
-        <v>0.4782051282</v>
+        <v>0.4347222222166667</v>
       </c>
     </row>
     <row r="96" spans="1:30">
@@ -9718,7 +9754,7 @@
         <v>1</v>
       </c>
       <c r="AD96">
-        <v>0.4782051282</v>
+        <v>0.4347222222166667</v>
       </c>
     </row>
     <row r="97" spans="1:30">
@@ -9810,7 +9846,7 @@
         <v>1</v>
       </c>
       <c r="AD97">
-        <v>0.4782051282</v>
+        <v>0.4347222222166667</v>
       </c>
     </row>
     <row r="98" spans="1:30">
@@ -9902,7 +9938,7 @@
         <v>1</v>
       </c>
       <c r="AD98">
-        <v>0.4782051282</v>
+        <v>0.4347222222166667</v>
       </c>
     </row>
     <row r="99" spans="1:30">
@@ -9994,7 +10030,7 @@
         <v>1</v>
       </c>
       <c r="AD99">
-        <v>0.4782051282</v>
+        <v>0.4347222222166667</v>
       </c>
     </row>
     <row r="100" spans="1:30">
@@ -10086,7 +10122,7 @@
         <v>1</v>
       </c>
       <c r="AD100">
-        <v>0.4782051282</v>
+        <v>0.4347222222166667</v>
       </c>
     </row>
     <row r="101" spans="1:30">
@@ -10178,7 +10214,7 @@
         <v>1</v>
       </c>
       <c r="AD101">
-        <v>0.4782051282</v>
+        <v>0.4347222222166667</v>
       </c>
     </row>
     <row r="102" spans="1:30">
@@ -10270,7 +10306,7 @@
         <v>1</v>
       </c>
       <c r="AD102">
-        <v>0.4782051282</v>
+        <v>0.4347222222166667</v>
       </c>
     </row>
     <row r="103" spans="1:30">
@@ -10362,7 +10398,7 @@
         <v>1</v>
       </c>
       <c r="AD103">
-        <v>0.4782051282</v>
+        <v>0.4347222222166667</v>
       </c>
     </row>
     <row r="104" spans="1:30">
@@ -10454,7 +10490,7 @@
         <v>1</v>
       </c>
       <c r="AD104">
-        <v>0.4782051282</v>
+        <v>0.4347222222166667</v>
       </c>
     </row>
     <row r="105" spans="1:30">
@@ -10546,7 +10582,7 @@
         <v>1</v>
       </c>
       <c r="AD105">
-        <v>0.4782051282</v>
+        <v>0.4347222222166667</v>
       </c>
     </row>
     <row r="106" spans="1:30">
@@ -10638,7 +10674,7 @@
         <v>0</v>
       </c>
       <c r="AD106">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="107" spans="1:30">
@@ -10730,7 +10766,7 @@
         <v>0</v>
       </c>
       <c r="AD107">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="108" spans="1:30">
@@ -10822,7 +10858,7 @@
         <v>0</v>
       </c>
       <c r="AD108">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="109" spans="1:30">
@@ -10914,7 +10950,7 @@
         <v>0</v>
       </c>
       <c r="AD109">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="110" spans="1:30">
@@ -11006,7 +11042,7 @@
         <v>0</v>
       </c>
       <c r="AD110">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="111" spans="1:30">
@@ -11098,7 +11134,7 @@
         <v>0</v>
       </c>
       <c r="AD111">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="112" spans="1:30">
@@ -11190,7 +11226,7 @@
         <v>0</v>
       </c>
       <c r="AD112">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="113" spans="1:30">
@@ -11282,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="AD113">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="114" spans="1:30">
@@ -11374,7 +11410,7 @@
         <v>0</v>
       </c>
       <c r="AD114">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="115" spans="1:30">
@@ -11466,7 +11502,7 @@
         <v>0</v>
       </c>
       <c r="AD115">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="116" spans="1:30">
@@ -11558,7 +11594,7 @@
         <v>0</v>
       </c>
       <c r="AD116">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="117" spans="1:30">
@@ -11650,7 +11686,7 @@
         <v>0</v>
       </c>
       <c r="AD117">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="118" spans="1:30">
@@ -11742,7 +11778,7 @@
         <v>0</v>
       </c>
       <c r="AD118">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="119" spans="1:30">
@@ -11834,7 +11870,7 @@
         <v>0</v>
       </c>
       <c r="AD119">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="120" spans="1:30">
@@ -11926,7 +11962,7 @@
         <v>0</v>
       </c>
       <c r="AD120">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="121" spans="1:30">
@@ -12018,7 +12054,7 @@
         <v>0</v>
       </c>
       <c r="AD121">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="122" spans="1:30">
@@ -12110,7 +12146,7 @@
         <v>0</v>
       </c>
       <c r="AD122">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="123" spans="1:30">
@@ -12202,7 +12238,7 @@
         <v>0</v>
       </c>
       <c r="AD123">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="124" spans="1:30">
@@ -12294,7 +12330,7 @@
         <v>0</v>
       </c>
       <c r="AD124">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="125" spans="1:30">
@@ -12386,7 +12422,7 @@
         <v>0</v>
       </c>
       <c r="AD125">
-        <v>0.2307692307692308</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="126" spans="1:30">
@@ -12478,7 +12514,7 @@
         <v>0</v>
       </c>
       <c r="AD126">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="127" spans="1:30">
@@ -12570,7 +12606,7 @@
         <v>0</v>
       </c>
       <c r="AD127">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="128" spans="1:30">
@@ -12662,7 +12698,7 @@
         <v>0</v>
       </c>
       <c r="AD128">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="129" spans="1:30">
@@ -12754,7 +12790,7 @@
         <v>0</v>
       </c>
       <c r="AD129">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="130" spans="1:30">
@@ -12846,7 +12882,7 @@
         <v>0</v>
       </c>
       <c r="AD130">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="131" spans="1:30">
@@ -12938,7 +12974,7 @@
         <v>0</v>
       </c>
       <c r="AD131">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="132" spans="1:30">
@@ -13030,7 +13066,7 @@
         <v>0</v>
       </c>
       <c r="AD132">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="133" spans="1:30">
@@ -13122,7 +13158,7 @@
         <v>0</v>
       </c>
       <c r="AD133">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="134" spans="1:30">
@@ -13214,7 +13250,7 @@
         <v>0</v>
       </c>
       <c r="AD134">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="135" spans="1:30">
@@ -13306,7 +13342,7 @@
         <v>0</v>
       </c>
       <c r="AD135">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="136" spans="1:30">
@@ -13398,7 +13434,7 @@
         <v>0</v>
       </c>
       <c r="AD136">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="137" spans="1:30">
@@ -13490,7 +13526,7 @@
         <v>0</v>
       </c>
       <c r="AD137">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="138" spans="1:30">
@@ -13582,7 +13618,7 @@
         <v>0</v>
       </c>
       <c r="AD138">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="139" spans="1:30">
@@ -13674,7 +13710,7 @@
         <v>0</v>
       </c>
       <c r="AD139">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="140" spans="1:30">
@@ -13766,7 +13802,7 @@
         <v>0</v>
       </c>
       <c r="AD140">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="141" spans="1:30">
@@ -13858,7 +13894,7 @@
         <v>0</v>
       </c>
       <c r="AD141">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="142" spans="1:30">
@@ -13950,7 +13986,7 @@
         <v>0</v>
       </c>
       <c r="AD142">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="143" spans="1:30">
@@ -14042,7 +14078,7 @@
         <v>0</v>
       </c>
       <c r="AD143">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="144" spans="1:30">
@@ -14134,7 +14170,7 @@
         <v>0</v>
       </c>
       <c r="AD144">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="145" spans="1:30">
@@ -14226,7 +14262,7 @@
         <v>0</v>
       </c>
       <c r="AD145">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="146" spans="1:30">
@@ -14318,7 +14354,7 @@
         <v>0</v>
       </c>
       <c r="AD146">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="147" spans="1:30">
@@ -14410,7 +14446,7 @@
         <v>0</v>
       </c>
       <c r="AD147">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="148" spans="1:30">
@@ -14502,7 +14538,7 @@
         <v>0</v>
       </c>
       <c r="AD148">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="149" spans="1:30">
@@ -14594,7 +14630,7 @@
         <v>0</v>
       </c>
       <c r="AD149">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="150" spans="1:30">
@@ -14686,7 +14722,7 @@
         <v>0</v>
       </c>
       <c r="AD150">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="151" spans="1:30">
@@ -14778,7 +14814,7 @@
         <v>0</v>
       </c>
       <c r="AD151">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="152" spans="1:30">
@@ -14870,7 +14906,7 @@
         <v>0</v>
       </c>
       <c r="AD152">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="153" spans="1:30">
@@ -14962,7 +14998,7 @@
         <v>0</v>
       </c>
       <c r="AD153">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="154" spans="1:30">
@@ -15054,7 +15090,7 @@
         <v>0</v>
       </c>
       <c r="AD154">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="155" spans="1:30">
@@ -15146,7 +15182,7 @@
         <v>0</v>
       </c>
       <c r="AD155">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="156" spans="1:30">
@@ -15238,7 +15274,7 @@
         <v>0</v>
       </c>
       <c r="AD156">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="157" spans="1:30">
@@ -15330,7 +15366,7 @@
         <v>0</v>
       </c>
       <c r="AD157">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="158" spans="1:30">
@@ -15422,7 +15458,7 @@
         <v>0</v>
       </c>
       <c r="AD158">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="159" spans="1:30">
@@ -15514,7 +15550,7 @@
         <v>0</v>
       </c>
       <c r="AD159">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="160" spans="1:30">
@@ -15606,7 +15642,7 @@
         <v>0</v>
       </c>
       <c r="AD160">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="161" spans="1:30">
@@ -15698,7 +15734,7 @@
         <v>0</v>
       </c>
       <c r="AD161">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="162" spans="1:30">
@@ -15790,7 +15826,7 @@
         <v>0</v>
       </c>
       <c r="AD162">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="163" spans="1:30">
@@ -15882,7 +15918,7 @@
         <v>0</v>
       </c>
       <c r="AD163">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="164" spans="1:30">
@@ -15974,7 +16010,7 @@
         <v>0</v>
       </c>
       <c r="AD164">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="165" spans="1:30">
@@ -16066,7 +16102,7 @@
         <v>0</v>
       </c>
       <c r="AD165">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="166" spans="1:30">
@@ -16158,7 +16194,7 @@
         <v>0</v>
       </c>
       <c r="AD166">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="167" spans="1:30">
@@ -16250,7 +16286,7 @@
         <v>0</v>
       </c>
       <c r="AD167">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="168" spans="1:30">
@@ -16342,7 +16378,7 @@
         <v>0</v>
       </c>
       <c r="AD168">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="169" spans="1:30">
@@ -16434,7 +16470,7 @@
         <v>0</v>
       </c>
       <c r="AD169">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="170" spans="1:30">
@@ -16526,7 +16562,7 @@
         <v>0</v>
       </c>
       <c r="AD170">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="171" spans="1:30">
@@ -16618,7 +16654,7 @@
         <v>0</v>
       </c>
       <c r="AD171">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="172" spans="1:30">
@@ -16710,7 +16746,7 @@
         <v>0</v>
       </c>
       <c r="AD172">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="173" spans="1:30">
@@ -16802,7 +16838,7 @@
         <v>0</v>
       </c>
       <c r="AD173">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="174" spans="1:30">
@@ -16894,7 +16930,7 @@
         <v>0</v>
       </c>
       <c r="AD174">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="175" spans="1:30">
@@ -16986,7 +17022,7 @@
         <v>0</v>
       </c>
       <c r="AD175">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="176" spans="1:30">
@@ -17078,7 +17114,7 @@
         <v>0</v>
       </c>
       <c r="AD176">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="177" spans="1:30">
@@ -17170,7 +17206,7 @@
         <v>0</v>
       </c>
       <c r="AD177">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="178" spans="1:30">
@@ -17262,7 +17298,7 @@
         <v>0</v>
       </c>
       <c r="AD178">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="179" spans="1:30">
@@ -17354,7 +17390,7 @@
         <v>0</v>
       </c>
       <c r="AD179">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="180" spans="1:30">
@@ -17446,7 +17482,7 @@
         <v>0</v>
       </c>
       <c r="AD180">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="181" spans="1:30">
@@ -17538,7 +17574,7 @@
         <v>0</v>
       </c>
       <c r="AD181">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="182" spans="1:30">
@@ -17630,7 +17666,7 @@
         <v>0</v>
       </c>
       <c r="AD182">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="183" spans="1:30">
@@ -17722,7 +17758,7 @@
         <v>0</v>
       </c>
       <c r="AD183">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="184" spans="1:30">
@@ -17814,7 +17850,7 @@
         <v>0</v>
       </c>
       <c r="AD184">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="185" spans="1:30">
@@ -17906,7 +17942,7 @@
         <v>0</v>
       </c>
       <c r="AD185">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="186" spans="1:30">
@@ -17998,7 +18034,7 @@
         <v>0</v>
       </c>
       <c r="AD186">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="187" spans="1:30">
@@ -18090,7 +18126,7 @@
         <v>0</v>
       </c>
       <c r="AD187">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="188" spans="1:30">
@@ -18182,7 +18218,7 @@
         <v>0</v>
       </c>
       <c r="AD188">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="189" spans="1:30">
@@ -18274,7 +18310,7 @@
         <v>0</v>
       </c>
       <c r="AD189">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="190" spans="1:30">
@@ -18366,7 +18402,7 @@
         <v>0</v>
       </c>
       <c r="AD190">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="191" spans="1:30">
@@ -18458,7 +18494,7 @@
         <v>0</v>
       </c>
       <c r="AD191">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="192" spans="1:30">
@@ -18550,7 +18586,7 @@
         <v>0</v>
       </c>
       <c r="AD192">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="193" spans="1:30">
@@ -18642,7 +18678,7 @@
         <v>0</v>
       </c>
       <c r="AD193">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="194" spans="1:30">
@@ -18734,7 +18770,7 @@
         <v>0</v>
       </c>
       <c r="AD194">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="195" spans="1:30">
@@ -18826,7 +18862,7 @@
         <v>0</v>
       </c>
       <c r="AD195">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="196" spans="1:30">
@@ -18918,7 +18954,7 @@
         <v>0</v>
       </c>
       <c r="AD196">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="197" spans="1:30">
@@ -19010,7 +19046,7 @@
         <v>0</v>
       </c>
       <c r="AD197">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="198" spans="1:30">
@@ -19102,7 +19138,7 @@
         <v>0</v>
       </c>
       <c r="AD198">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="199" spans="1:30">
@@ -19194,7 +19230,7 @@
         <v>0</v>
       </c>
       <c r="AD199">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="200" spans="1:30">
@@ -19286,7 +19322,7 @@
         <v>0</v>
       </c>
       <c r="AD200">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="201" spans="1:30">
@@ -19378,7 +19414,7 @@
         <v>0</v>
       </c>
       <c r="AD201">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="202" spans="1:30">
@@ -19470,7 +19506,7 @@
         <v>0</v>
       </c>
       <c r="AD202">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="203" spans="1:30">
@@ -19562,7 +19598,7 @@
         <v>0</v>
       </c>
       <c r="AD203">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="204" spans="1:30">
@@ -19654,7 +19690,7 @@
         <v>0</v>
       </c>
       <c r="AD204">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="205" spans="1:30">
@@ -19746,7 +19782,7 @@
         <v>0</v>
       </c>
       <c r="AD205">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="206" spans="1:30">
@@ -19838,7 +19874,7 @@
         <v>0</v>
       </c>
       <c r="AD206">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="207" spans="1:30">
@@ -19930,7 +19966,7 @@
         <v>0</v>
       </c>
       <c r="AD207">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="208" spans="1:30">
@@ -20022,7 +20058,7 @@
         <v>0</v>
       </c>
       <c r="AD208">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="209" spans="1:30">
@@ -20114,7 +20150,7 @@
         <v>0</v>
       </c>
       <c r="AD209">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="210" spans="1:30">
@@ -20206,7 +20242,7 @@
         <v>0</v>
       </c>
       <c r="AD210">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="211" spans="1:30">
@@ -20298,7 +20334,7 @@
         <v>0</v>
       </c>
       <c r="AD211">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="212" spans="1:30">
@@ -20390,7 +20426,7 @@
         <v>0</v>
       </c>
       <c r="AD212">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="213" spans="1:30">
@@ -20482,7 +20518,7 @@
         <v>0</v>
       </c>
       <c r="AD213">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="214" spans="1:30">
@@ -20574,7 +20610,7 @@
         <v>0</v>
       </c>
       <c r="AD214">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="215" spans="1:30">
@@ -20666,7 +20702,7 @@
         <v>0</v>
       </c>
       <c r="AD215">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="216" spans="1:30">
@@ -20758,7 +20794,7 @@
         <v>0</v>
       </c>
       <c r="AD216">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="217" spans="1:30">
@@ -20850,7 +20886,7 @@
         <v>0</v>
       </c>
       <c r="AD217">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="218" spans="1:30">
@@ -20942,7 +20978,7 @@
         <v>0</v>
       </c>
       <c r="AD218">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="219" spans="1:30">
@@ -21034,7 +21070,7 @@
         <v>0</v>
       </c>
       <c r="AD219">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="220" spans="1:30">
@@ -21126,7 +21162,7 @@
         <v>0</v>
       </c>
       <c r="AD220">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
       </c>
     </row>
     <row r="221" spans="1:30">
@@ -21218,7 +21254,1111 @@
         <v>0</v>
       </c>
       <c r="AD221">
-        <v>0.2564102564076923</v>
+        <v>0.1944444444416667</v>
+      </c>
+    </row>
+    <row r="222" spans="1:30">
+      <c r="A222" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>0</v>
+      </c>
+      <c r="O222">
+        <v>0</v>
+      </c>
+      <c r="P222">
+        <v>0</v>
+      </c>
+      <c r="Q222">
+        <v>0</v>
+      </c>
+      <c r="R222">
+        <v>0</v>
+      </c>
+      <c r="S222">
+        <v>0</v>
+      </c>
+      <c r="T222">
+        <v>0</v>
+      </c>
+      <c r="U222">
+        <v>0</v>
+      </c>
+      <c r="V222">
+        <v>0</v>
+      </c>
+      <c r="W222">
+        <v>0</v>
+      </c>
+      <c r="X222">
+        <v>1</v>
+      </c>
+      <c r="Y222">
+        <v>1</v>
+      </c>
+      <c r="Z222">
+        <v>1</v>
+      </c>
+      <c r="AA222">
+        <v>0</v>
+      </c>
+      <c r="AB222">
+        <v>1</v>
+      </c>
+      <c r="AC222">
+        <v>0</v>
+      </c>
+      <c r="AD222">
+        <v>0.1944444444416667</v>
+      </c>
+    </row>
+    <row r="223" spans="1:30">
+      <c r="A223" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>0</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <v>0</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223">
+        <v>0</v>
+      </c>
+      <c r="S223">
+        <v>0</v>
+      </c>
+      <c r="T223">
+        <v>0</v>
+      </c>
+      <c r="U223">
+        <v>0</v>
+      </c>
+      <c r="V223">
+        <v>0</v>
+      </c>
+      <c r="W223">
+        <v>0</v>
+      </c>
+      <c r="X223">
+        <v>1</v>
+      </c>
+      <c r="Y223">
+        <v>1</v>
+      </c>
+      <c r="Z223">
+        <v>1</v>
+      </c>
+      <c r="AA223">
+        <v>0</v>
+      </c>
+      <c r="AB223">
+        <v>1</v>
+      </c>
+      <c r="AC223">
+        <v>0</v>
+      </c>
+      <c r="AD223">
+        <v>0.1944444444416667</v>
+      </c>
+    </row>
+    <row r="224" spans="1:30">
+      <c r="A224" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+      <c r="F224">
+        <v>1</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <v>0</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <v>0</v>
+      </c>
+      <c r="S224">
+        <v>0</v>
+      </c>
+      <c r="T224">
+        <v>0</v>
+      </c>
+      <c r="U224">
+        <v>0</v>
+      </c>
+      <c r="V224">
+        <v>0</v>
+      </c>
+      <c r="W224">
+        <v>0</v>
+      </c>
+      <c r="X224">
+        <v>1</v>
+      </c>
+      <c r="Y224">
+        <v>1</v>
+      </c>
+      <c r="Z224">
+        <v>1</v>
+      </c>
+      <c r="AA224">
+        <v>0</v>
+      </c>
+      <c r="AB224">
+        <v>1</v>
+      </c>
+      <c r="AC224">
+        <v>0</v>
+      </c>
+      <c r="AD224">
+        <v>0.1944444444416667</v>
+      </c>
+    </row>
+    <row r="225" spans="1:30">
+      <c r="A225" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="F225">
+        <v>1</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>0</v>
+      </c>
+      <c r="S225">
+        <v>0</v>
+      </c>
+      <c r="T225">
+        <v>0</v>
+      </c>
+      <c r="U225">
+        <v>0</v>
+      </c>
+      <c r="V225">
+        <v>0</v>
+      </c>
+      <c r="W225">
+        <v>0</v>
+      </c>
+      <c r="X225">
+        <v>1</v>
+      </c>
+      <c r="Y225">
+        <v>1</v>
+      </c>
+      <c r="Z225">
+        <v>1</v>
+      </c>
+      <c r="AA225">
+        <v>0</v>
+      </c>
+      <c r="AB225">
+        <v>1</v>
+      </c>
+      <c r="AC225">
+        <v>0</v>
+      </c>
+      <c r="AD225">
+        <v>0.1944444444416667</v>
+      </c>
+    </row>
+    <row r="226" spans="1:30">
+      <c r="A226" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <v>1</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>0</v>
+      </c>
+      <c r="S226">
+        <v>0</v>
+      </c>
+      <c r="T226">
+        <v>0</v>
+      </c>
+      <c r="U226">
+        <v>0</v>
+      </c>
+      <c r="V226">
+        <v>0</v>
+      </c>
+      <c r="W226">
+        <v>0</v>
+      </c>
+      <c r="X226">
+        <v>1</v>
+      </c>
+      <c r="Y226">
+        <v>1</v>
+      </c>
+      <c r="Z226">
+        <v>1</v>
+      </c>
+      <c r="AA226">
+        <v>0</v>
+      </c>
+      <c r="AB226">
+        <v>1</v>
+      </c>
+      <c r="AC226">
+        <v>0</v>
+      </c>
+      <c r="AD226">
+        <v>0.1944444444416667</v>
+      </c>
+    </row>
+    <row r="227" spans="1:30">
+      <c r="A227" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <v>0</v>
+      </c>
+      <c r="P227">
+        <v>0</v>
+      </c>
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227">
+        <v>0</v>
+      </c>
+      <c r="S227">
+        <v>0</v>
+      </c>
+      <c r="T227">
+        <v>0</v>
+      </c>
+      <c r="U227">
+        <v>0</v>
+      </c>
+      <c r="V227">
+        <v>0</v>
+      </c>
+      <c r="W227">
+        <v>0</v>
+      </c>
+      <c r="X227">
+        <v>1</v>
+      </c>
+      <c r="Y227">
+        <v>1</v>
+      </c>
+      <c r="Z227">
+        <v>1</v>
+      </c>
+      <c r="AA227">
+        <v>0</v>
+      </c>
+      <c r="AB227">
+        <v>1</v>
+      </c>
+      <c r="AC227">
+        <v>0</v>
+      </c>
+      <c r="AD227">
+        <v>0.1944444444416667</v>
+      </c>
+    </row>
+    <row r="228" spans="1:30">
+      <c r="A228" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <v>0</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <v>0</v>
+      </c>
+      <c r="S228">
+        <v>0</v>
+      </c>
+      <c r="T228">
+        <v>0</v>
+      </c>
+      <c r="U228">
+        <v>0</v>
+      </c>
+      <c r="V228">
+        <v>0</v>
+      </c>
+      <c r="W228">
+        <v>0</v>
+      </c>
+      <c r="X228">
+        <v>1</v>
+      </c>
+      <c r="Y228">
+        <v>1</v>
+      </c>
+      <c r="Z228">
+        <v>1</v>
+      </c>
+      <c r="AA228">
+        <v>0</v>
+      </c>
+      <c r="AB228">
+        <v>1</v>
+      </c>
+      <c r="AC228">
+        <v>0</v>
+      </c>
+      <c r="AD228">
+        <v>0.1944444444416667</v>
+      </c>
+    </row>
+    <row r="229" spans="1:30">
+      <c r="A229" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <v>0</v>
+      </c>
+      <c r="S229">
+        <v>0</v>
+      </c>
+      <c r="T229">
+        <v>0</v>
+      </c>
+      <c r="U229">
+        <v>0</v>
+      </c>
+      <c r="V229">
+        <v>0</v>
+      </c>
+      <c r="W229">
+        <v>0</v>
+      </c>
+      <c r="X229">
+        <v>1</v>
+      </c>
+      <c r="Y229">
+        <v>1</v>
+      </c>
+      <c r="Z229">
+        <v>1</v>
+      </c>
+      <c r="AA229">
+        <v>0</v>
+      </c>
+      <c r="AB229">
+        <v>1</v>
+      </c>
+      <c r="AC229">
+        <v>0</v>
+      </c>
+      <c r="AD229">
+        <v>0.1944444444416667</v>
+      </c>
+    </row>
+    <row r="230" spans="1:30">
+      <c r="A230" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+      <c r="F230">
+        <v>1</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <v>0</v>
+      </c>
+      <c r="S230">
+        <v>0</v>
+      </c>
+      <c r="T230">
+        <v>0</v>
+      </c>
+      <c r="U230">
+        <v>0</v>
+      </c>
+      <c r="V230">
+        <v>0</v>
+      </c>
+      <c r="W230">
+        <v>0</v>
+      </c>
+      <c r="X230">
+        <v>1</v>
+      </c>
+      <c r="Y230">
+        <v>1</v>
+      </c>
+      <c r="Z230">
+        <v>1</v>
+      </c>
+      <c r="AA230">
+        <v>0</v>
+      </c>
+      <c r="AB230">
+        <v>1</v>
+      </c>
+      <c r="AC230">
+        <v>0</v>
+      </c>
+      <c r="AD230">
+        <v>0.1944444444416667</v>
+      </c>
+    </row>
+    <row r="231" spans="1:30">
+      <c r="A231" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+      <c r="F231">
+        <v>1</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <v>0</v>
+      </c>
+      <c r="P231">
+        <v>0</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <v>0</v>
+      </c>
+      <c r="S231">
+        <v>0</v>
+      </c>
+      <c r="T231">
+        <v>0</v>
+      </c>
+      <c r="U231">
+        <v>0</v>
+      </c>
+      <c r="V231">
+        <v>0</v>
+      </c>
+      <c r="W231">
+        <v>0</v>
+      </c>
+      <c r="X231">
+        <v>1</v>
+      </c>
+      <c r="Y231">
+        <v>1</v>
+      </c>
+      <c r="Z231">
+        <v>1</v>
+      </c>
+      <c r="AA231">
+        <v>0</v>
+      </c>
+      <c r="AB231">
+        <v>1</v>
+      </c>
+      <c r="AC231">
+        <v>0</v>
+      </c>
+      <c r="AD231">
+        <v>0.1944444444416667</v>
+      </c>
+    </row>
+    <row r="232" spans="1:30">
+      <c r="A232" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+      <c r="F232">
+        <v>1</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <v>0</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232">
+        <v>0</v>
+      </c>
+      <c r="S232">
+        <v>0</v>
+      </c>
+      <c r="T232">
+        <v>0</v>
+      </c>
+      <c r="U232">
+        <v>0</v>
+      </c>
+      <c r="V232">
+        <v>0</v>
+      </c>
+      <c r="W232">
+        <v>0</v>
+      </c>
+      <c r="X232">
+        <v>1</v>
+      </c>
+      <c r="Y232">
+        <v>1</v>
+      </c>
+      <c r="Z232">
+        <v>1</v>
+      </c>
+      <c r="AA232">
+        <v>0</v>
+      </c>
+      <c r="AB232">
+        <v>1</v>
+      </c>
+      <c r="AC232">
+        <v>0</v>
+      </c>
+      <c r="AD232">
+        <v>0.1944444444416667</v>
+      </c>
+    </row>
+    <row r="233" spans="1:30">
+      <c r="A233" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>0</v>
+      </c>
+      <c r="F233">
+        <v>1</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <v>0</v>
+      </c>
+      <c r="P233">
+        <v>0</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233">
+        <v>0</v>
+      </c>
+      <c r="S233">
+        <v>0</v>
+      </c>
+      <c r="T233">
+        <v>0</v>
+      </c>
+      <c r="U233">
+        <v>0</v>
+      </c>
+      <c r="V233">
+        <v>0</v>
+      </c>
+      <c r="W233">
+        <v>0</v>
+      </c>
+      <c r="X233">
+        <v>1</v>
+      </c>
+      <c r="Y233">
+        <v>1</v>
+      </c>
+      <c r="Z233">
+        <v>1</v>
+      </c>
+      <c r="AA233">
+        <v>0</v>
+      </c>
+      <c r="AB233">
+        <v>1</v>
+      </c>
+      <c r="AC233">
+        <v>0</v>
+      </c>
+      <c r="AD233">
+        <v>0.1944444444416667</v>
       </c>
     </row>
   </sheetData>
